--- a/PaymentsDaily.xlsx
+++ b/PaymentsDaily.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I603"/>
+  <dimension ref="A1:I626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="C443" sqref="C443"/>
@@ -24411,6 +24411,950 @@
         </is>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Наркулова Гулнара Оросбековна</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>1</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0</v>
+      </c>
+      <c r="F604" t="n">
+        <v>300</v>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>мбанк 555621331</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Эргешова Гулкайыр</t>
+        </is>
+      </c>
+      <c r="D605" t="n">
+        <v>0</v>
+      </c>
+      <c r="E605" t="n">
+        <v>1</v>
+      </c>
+      <c r="F605" t="n">
+        <v>150</v>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>мбанк 504204304</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Эльдиярова Алтынкыз</t>
+        </is>
+      </c>
+      <c r="D606" t="n">
+        <v>1</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0</v>
+      </c>
+      <c r="F606" t="n">
+        <v>300</v>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>мбанк 709443195</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Хаджикулова Надирабегим Сабиржановна</t>
+        </is>
+      </c>
+      <c r="D607" t="n">
+        <v>1</v>
+      </c>
+      <c r="E607" t="n">
+        <v>0</v>
+      </c>
+      <c r="F607" t="n">
+        <v>300</v>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>мбанк 551848080</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Наркулова Гулнара Оросбековна</t>
+        </is>
+      </c>
+      <c r="D608" t="n">
+        <v>1</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0</v>
+      </c>
+      <c r="F608" t="n">
+        <v>300</v>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>мбанк 555621331</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Конокбекова Сезим Конокбековна</t>
+        </is>
+      </c>
+      <c r="D609" t="n">
+        <v>1</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F609" t="n">
+        <v>300</v>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>мбанк 550247744</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Алтымышева Гульзина Шакировна</t>
+        </is>
+      </c>
+      <c r="D610" t="n">
+        <v>4</v>
+      </c>
+      <c r="E610" t="n">
+        <v>2</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>мбанк 550778710 Жоомарт</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Эргешова Гулкайыр</t>
+        </is>
+      </c>
+      <c r="D611" t="n">
+        <v>6</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>мбанк 504204304</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Эльдиярова Алтынкыз</t>
+        </is>
+      </c>
+      <c r="D612" t="n">
+        <v>1</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0</v>
+      </c>
+      <c r="F612" t="n">
+        <v>300</v>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>мбанк 709443195</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Чинбердиева Акмоор Абдусаламовна</t>
+        </is>
+      </c>
+      <c r="D613" t="n">
+        <v>2</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0</v>
+      </c>
+      <c r="F613" t="n">
+        <v>600</v>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>мбанк 550777798</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Хаджикулова Надирабегим Сабиржановна</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>2</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0</v>
+      </c>
+      <c r="F614" t="n">
+        <v>600</v>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>мбанк 551848080</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Умарова Бегимай Махамаджановна</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>2</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0</v>
+      </c>
+      <c r="F615" t="n">
+        <v>600</v>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>элкарт 9417089070391223</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Токтомаматов Уланбек Мамарасулович</t>
+        </is>
+      </c>
+      <c r="D616" t="n">
+        <v>1</v>
+      </c>
+      <c r="E616" t="n">
+        <v>2</v>
+      </c>
+      <c r="F616" t="n">
+        <v>600</v>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>мбанк 555833983</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Токтоболотов Жанышбек Абдылдаевич</t>
+        </is>
+      </c>
+      <c r="D617" t="n">
+        <v>1</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0</v>
+      </c>
+      <c r="F617" t="n">
+        <v>300</v>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>мбанк 551558155</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Таанышбекова Айгерим Таанышбековна</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>1</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0</v>
+      </c>
+      <c r="F618" t="n">
+        <v>300</v>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>мбанк 557116773</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Нышанова Айпери Абдувахаповна</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>2</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0</v>
+      </c>
+      <c r="F619" t="n">
+        <v>600</v>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>мбанк 700523004</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Конокбекова Сезим Конокбековна</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>1</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1</v>
+      </c>
+      <c r="F620" t="n">
+        <v>450</v>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>мбанк 550247744</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Каюмов Рузимухаммад Абдилахатович</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>2</v>
+      </c>
+      <c r="E621" t="n">
+        <v>0</v>
+      </c>
+      <c r="F621" t="n">
+        <v>600</v>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>элкарт 9417089010185453</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Калиева Рахат Сатыбалдиевна</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>0</v>
+      </c>
+      <c r="E622" t="n">
+        <v>2</v>
+      </c>
+      <c r="F622" t="n">
+        <v>300</v>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>элсом 705205012</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Жораев Фазлидин Каримжонович</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>1</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0</v>
+      </c>
+      <c r="F623" t="n">
+        <v>300</v>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>мбанк 550696096</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Аттокурова Айгерим Эрнестовна</t>
+        </is>
+      </c>
+      <c r="D624" t="n">
+        <v>2</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0</v>
+      </c>
+      <c r="F624" t="n">
+        <v>600</v>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>мбанк 709369973</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>З/П</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Алтымышева Гульзина Шакировна</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
+      <c r="E625" t="n">
+        <v>4</v>
+      </c>
+      <c r="F625" t="n">
+        <v>600</v>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>мбанк 550778710 Жоомарт</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>квитанция эл.кошелек</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>20.11.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
